--- a/biology/Zoologie/Grosphus/Grosphus.xlsx
+++ b/biology/Zoologie/Grosphus/Grosphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grosphus est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Madagascar[1] et à Mayotte[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Madagascar et à Mayotte.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (19/09/2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (19/09/2022) :
 Grosphus ambre Lourenço, Wilmé &amp; Waeber, 2018
 Grosphus angulatus Lowe &amp; Kovařík, 2022
 Grosphus darainensis Lourenço, Goodman &amp; Ramilijaona, 2004
@@ -586,10 +602,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1880.
-Teruelius[4], placé en synonymie par Lourenço, Rossi, Wilmé, Raherilalao, Soarimalala et Waeber en 2020[5] a été relevé de synonymie par Lowe et Kovařík en 2022[6].
+Teruelius, placé en synonymie par Lourenço, Rossi, Wilmé, Raherilalao, Soarimalala et Waeber en 2020 a été relevé de synonymie par Lowe et Kovařík en 2022.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1880 : « Études Arachnologiques. 12° mémoire. XVIII. Descriptions de genres et espèces de l'ordre des Scorpions. » Annales de la Société entomologique de France, sér. 5, vol. 10, p. 377-398 (texte intégral).</t>
         </is>
